--- a/PSI II Lab 3/UCxKlases.xlsx
+++ b/PSI II Lab 3/UCxKlases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steror\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steror\Documents\GitHub\Slidinejimas\PSI II Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>UC 1</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>UC 10</t>
-  </si>
-  <si>
-    <t>UC 11</t>
-  </si>
-  <si>
-    <t>UC 12</t>
-  </si>
-  <si>
-    <t>UC 13</t>
-  </si>
-  <si>
-    <t>UC 14</t>
   </si>
   <si>
     <t>X</t>
@@ -192,12 +180,21 @@
   <si>
     <t>DetalesnesInformacijosLangas</t>
   </si>
+  <si>
+    <t>UC 3</t>
+  </si>
+  <si>
+    <t>UC 5</t>
+  </si>
+  <si>
+    <t>UC 9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,11 +212,6 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -354,51 +346,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -407,19 +354,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -450,23 +384,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
@@ -476,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="135" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR31" sqref="AR31"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AQ26" sqref="AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,637 +739,589 @@
   <sheetData>
     <row r="1" spans="1:36" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="Q1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="R1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="S1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="T1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="V1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="X1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="Z1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AA1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AB1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AC1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AD1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AE1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AF1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AH1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AI1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="6"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="6"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="4"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="5"/>
+      <c r="AE2" s="3"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="5"/>
+      <c r="AG2" s="3"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="7"/>
+      <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="3"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="6"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="4"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="5"/>
+      <c r="AE3" s="3"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="5"/>
+      <c r="AG3" s="3"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-      <c r="AJ3" s="7"/>
+      <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="6"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="6"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="AE4" s="3"/>
       <c r="AF4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="3"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="6"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="6"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="5" t="s">
-        <v>11</v>
+      <c r="AG5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="7"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="6"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="6" t="s">
-        <v>11</v>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="7"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="5" t="s">
-        <v>11</v>
+      <c r="R7" s="5"/>
+      <c r="S7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="6"/>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="6"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="5"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="5"/>
+      <c r="AG7" s="3"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="7"/>
+      <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="6"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="6"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="4"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="5"/>
+      <c r="AG8" s="3"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="7"/>
+      <c r="AJ8" s="5"/>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="6" t="s">
-        <v>11</v>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="5"/>
+      <c r="AG9" s="3"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="7"/>
+      <c r="AJ9" s="5"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="6"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="6"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="4"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="5"/>
+      <c r="AG10" s="3"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="7"/>
+      <c r="AJ10" s="5"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="6"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="3"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="5"/>
+      <c r="AG11" s="3"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="10"/>
+      <c r="AJ11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
